--- a/inst/models/predation.xlsx
+++ b/inst/models/predation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="eqns" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -46,7 +46,10 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">growth_B</t>
+    <t xml:space="preserve">grB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cells/mL/h</t>
   </si>
   <si>
     <t xml:space="preserve">growth of bacteria</t>
@@ -64,7 +67,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">growth_F</t>
+    <t xml:space="preserve">grF</t>
   </si>
   <si>
     <t xml:space="preserve">growth of flagellates</t>
@@ -76,10 +79,13 @@
     <t xml:space="preserve">-B_per_F</t>
   </si>
   <si>
-    <t xml:space="preserve">export_R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">export of unused resources</t>
+    <t xml:space="preserve">exR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µg/mL/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export of resources</t>
   </si>
   <si>
     <t xml:space="preserve">1/tau * R</t>
@@ -88,7 +94,7 @@
     <t xml:space="preserve">-1</t>
   </si>
   <si>
-    <t xml:space="preserve">export_B</t>
+    <t xml:space="preserve">exB</t>
   </si>
   <si>
     <t xml:space="preserve">export of bacteria</t>
@@ -97,7 +103,7 @@
     <t xml:space="preserve">1/tau * B</t>
   </si>
   <si>
-    <t xml:space="preserve">export_F</t>
+    <t xml:space="preserve">exF</t>
   </si>
   <si>
     <t xml:space="preserve">export of flagellates</t>
@@ -106,10 +112,10 @@
     <t xml:space="preserve">1/tau * F</t>
   </si>
   <si>
-    <t xml:space="preserve">import_R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import of fresh resources</t>
+    <t xml:space="preserve">imR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import of resources</t>
   </si>
   <si>
     <t xml:space="preserve">1/tau * Rin</t>
@@ -403,23 +409,24 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -442,120 +449,138 @@
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,11 +604,11 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.02"/>
@@ -602,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,10 +635,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -624,10 +649,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>1000000</v>
@@ -638,10 +663,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>1000</v>
@@ -665,11 +690,11 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.03"/>
@@ -687,18 +712,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>1</v>
@@ -706,13 +731,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.1</v>
@@ -720,13 +745,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.5</v>
@@ -734,13 +759,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>100000</v>
@@ -748,13 +773,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>1E-006</v>
@@ -762,13 +787,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>300</v>
@@ -776,13 +801,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -790,13 +815,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>48</v>
@@ -804,13 +829,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>1000</v>
@@ -834,11 +859,11 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.06"/>
@@ -849,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
